--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SKU</t>
   </si>
@@ -46,12 +46,19 @@
   </si>
   <si>
     <t>CONTACT</t>
+  </si>
+  <si>
+    <t>DU70J5N4G3</t>
+  </si>
+  <si>
+    <t>QBZE7OVQBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,11 +471,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="22.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="21.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="18.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -492,8 +499,8 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
-        <v>18081995</v>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DD6992-3450-4D0F-B2AD-0D4128970E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21B5F1B-97FF-4CF1-86AE-98E40D57576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SKU</t>
   </si>
@@ -45,20 +45,16 @@
     <t>FamilyName</t>
   </si>
   <si>
-    <t>CONTACT</t>
-  </si>
-  <si>
-    <t>DU70J5N4G3</t>
-  </si>
-  <si>
-    <t>QBZE7OVQBS</t>
+    <t>IWSA</t>
+  </si>
+  <si>
+    <t>kuxqg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,16 +462,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="22.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="21.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="18.109375" collapsed="true"/>
+    <col min="1" max="1" width="22.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.109375" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -500,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21B5F1B-97FF-4CF1-86AE-98E40D57576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172E31A-E06E-43FF-85D8-8BA21DD26D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8496" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SKU</t>
   </si>
@@ -48,13 +48,23 @@
     <t>IWSA</t>
   </si>
   <si>
-    <t>kuxqg</t>
+    <t>7639971348</t>
+  </si>
+  <si>
+    <t>1752760536</t>
+  </si>
+  <si>
+    <t>0745318441</t>
+  </si>
+  <si>
+    <t>2299642071</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,16 +472,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="22.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="21.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="18.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -496,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SKU</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>2299642071</t>
+  </si>
+  <si>
+    <t>7445242058</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172E31A-E06E-43FF-85D8-8BA21DD26D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A08E6E-31CE-496C-B4DA-21270C895EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8496" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SKU</t>
   </si>
@@ -48,19 +48,10 @@
     <t>IWSA</t>
   </si>
   <si>
-    <t>7639971348</t>
-  </si>
-  <si>
-    <t>1752760536</t>
-  </si>
-  <si>
-    <t>0745318441</t>
-  </si>
-  <si>
-    <t>2299642071</t>
-  </si>
-  <si>
-    <t>7445242058</t>
+    <t>2056387170</t>
+  </si>
+  <si>
+    <t>2896088215</t>
   </si>
 </sst>
 </file>
@@ -509,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>SKU</t>
   </si>
@@ -52,6 +52,30 @@
   </si>
   <si>
     <t>2896088215</t>
+  </si>
+  <si>
+    <t>9143538020</t>
+  </si>
+  <si>
+    <t>7167497597</t>
+  </si>
+  <si>
+    <t>2153742067</t>
+  </si>
+  <si>
+    <t>2627233285</t>
+  </si>
+  <si>
+    <t>9389162478</t>
+  </si>
+  <si>
+    <t>4121395174</t>
+  </si>
+  <si>
+    <t>4838665630</t>
+  </si>
+  <si>
+    <t>1264227023</t>
   </si>
 </sst>
 </file>
@@ -500,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A08E6E-31CE-496C-B4DA-21270C895EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FBF7EA-FA60-48A8-98EB-43A43114EBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8496" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>SKU</t>
   </si>
@@ -48,34 +48,22 @@
     <t>IWSA</t>
   </si>
   <si>
-    <t>2056387170</t>
-  </si>
-  <si>
-    <t>2896088215</t>
-  </si>
-  <si>
-    <t>9143538020</t>
-  </si>
-  <si>
-    <t>7167497597</t>
-  </si>
-  <si>
-    <t>2153742067</t>
-  </si>
-  <si>
-    <t>2627233285</t>
-  </si>
-  <si>
-    <t>9389162478</t>
-  </si>
-  <si>
-    <t>4121395174</t>
-  </si>
-  <si>
-    <t>4838665630</t>
-  </si>
-  <si>
-    <t>1264227023</t>
+    <t>1833918452</t>
+  </si>
+  <si>
+    <t>4802777872</t>
+  </si>
+  <si>
+    <t>7496966322</t>
+  </si>
+  <si>
+    <t>6485672031</t>
+  </si>
+  <si>
+    <t>3702440675</t>
+  </si>
+  <si>
+    <t>5427246529</t>
   </si>
 </sst>
 </file>
@@ -524,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>SKU</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>5427246529</t>
+  </si>
+  <si>
+    <t>9664835598</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FBF7EA-FA60-48A8-98EB-43A43114EBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF08A301-80EB-4430-BCDA-B8A20EA903CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SKU</t>
   </si>
@@ -48,25 +48,7 @@
     <t>IWSA</t>
   </si>
   <si>
-    <t>1833918452</t>
-  </si>
-  <si>
-    <t>4802777872</t>
-  </si>
-  <si>
-    <t>7496966322</t>
-  </si>
-  <si>
-    <t>6485672031</t>
-  </si>
-  <si>
-    <t>3702440675</t>
-  </si>
-  <si>
-    <t>5427246529</t>
-  </si>
-  <si>
-    <t>9664835598</t>
+    <t>4572727343</t>
   </si>
 </sst>
 </file>
@@ -481,7 +463,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +497,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
@@ -524,7 +506,7 @@
         <v>5536531222</v>
       </c>
       <c r="E2" s="6">
-        <v>5500077444</v>
+        <v>6136950212</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SKU</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>4572727343</t>
+  </si>
+  <si>
+    <t>2526322177</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SKU</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>2526322177</t>
+  </si>
+  <si>
+    <t>6860344758</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SKU</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>6860344758</t>
+  </si>
+  <si>
+    <t>5708312899</t>
+  </si>
+  <si>
+    <t>7214205316</t>
+  </si>
+  <si>
+    <t>0713372028</t>
+  </si>
+  <si>
+    <t>0739690438</t>
+  </si>
+  <si>
+    <t>6411506103</t>
   </si>
 </sst>
 </file>
@@ -503,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SKU</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>6411506103</t>
+  </si>
+  <si>
+    <t>8605395449</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SKU</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>8605395449</t>
+  </si>
+  <si>
+    <t>8568590732</t>
+  </si>
+  <si>
+    <t>4368238099</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>SKU</t>
   </si>
@@ -79,6 +79,27 @@
   </si>
   <si>
     <t>4368238099</t>
+  </si>
+  <si>
+    <t>6172194456</t>
+  </si>
+  <si>
+    <t>8753550780</t>
+  </si>
+  <si>
+    <t>0953631672</t>
+  </si>
+  <si>
+    <t>8034465208</t>
+  </si>
+  <si>
+    <t>9129860497</t>
+  </si>
+  <si>
+    <t>1637961044</t>
+  </si>
+  <si>
+    <t>5968924680</t>
   </si>
 </sst>
 </file>
@@ -527,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF08A301-80EB-4430-BCDA-B8A20EA903CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1C5FDB-492E-4935-91DF-545A00922D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SKU</t>
   </si>
@@ -46,67 +46,12 @@
   </si>
   <si>
     <t>IWSA</t>
-  </si>
-  <si>
-    <t>4572727343</t>
-  </si>
-  <si>
-    <t>2526322177</t>
-  </si>
-  <si>
-    <t>6860344758</t>
-  </si>
-  <si>
-    <t>5708312899</t>
-  </si>
-  <si>
-    <t>7214205316</t>
-  </si>
-  <si>
-    <t>0713372028</t>
-  </si>
-  <si>
-    <t>0739690438</t>
-  </si>
-  <si>
-    <t>6411506103</t>
-  </si>
-  <si>
-    <t>8605395449</t>
-  </si>
-  <si>
-    <t>8568590732</t>
-  </si>
-  <si>
-    <t>4368238099</t>
-  </si>
-  <si>
-    <t>6172194456</t>
-  </si>
-  <si>
-    <t>8753550780</t>
-  </si>
-  <si>
-    <t>0953631672</t>
-  </si>
-  <si>
-    <t>8034465208</t>
-  </si>
-  <si>
-    <t>9129860497</t>
-  </si>
-  <si>
-    <t>1637961044</t>
-  </si>
-  <si>
-    <t>5968924680</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,16 +459,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="22.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="21.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="18.109375" collapsed="true"/>
+    <col min="1" max="1" width="22.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.109375" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -547,8 +492,8 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
+      <c r="B2" s="6">
+        <v>6088569444</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SKU</t>
   </si>
@@ -46,12 +46,22 @@
   </si>
   <si>
     <t>IWSA</t>
+  </si>
+  <si>
+    <t>5786252778</t>
+  </si>
+  <si>
+    <t>1581017959</t>
+  </si>
+  <si>
+    <t>0018227607</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,11 +474,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="22.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="21.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="18.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -492,8 +502,8 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
-        <v>6088569444</v>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>

--- a/src/test/resources/testData/Contact.xlsx
+++ b/src/test/resources/testData/Contact.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1C5FDB-492E-4935-91DF-545A00922D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B20840-1E4C-403E-9811-0A77C9FEAA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SKU</t>
   </si>
@@ -45,16 +45,13 @@
     <t>FamilyName</t>
   </si>
   <si>
-    <t>IWSA</t>
-  </si>
-  <si>
-    <t>5786252778</t>
-  </si>
-  <si>
-    <t>1581017959</t>
-  </si>
-  <si>
-    <t>0018227607</t>
+    <t>8864242522</t>
+  </si>
+  <si>
+    <t>EVENT_IW</t>
+  </si>
+  <si>
+    <t>8079982036</t>
   </si>
 </sst>
 </file>
@@ -469,7 +466,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,10 +497,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
